--- a/Econ Analysis.xlsx
+++ b/Econ Analysis.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i5fou\Documents\GitHub\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{033D4125-1F69-4C85-82B5-FDCEB9471DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FC4D5C-5AA2-456C-8FA8-F6F2E9F18B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="6030" windowWidth="21600" windowHeight="11295" xr2:uid="{85D933C1-2DED-42D7-8407-E7FAE42A77F0}"/>
+    <workbookView xWindow="17610" yWindow="0" windowWidth="11295" windowHeight="15585" activeTab="1" xr2:uid="{85D933C1-2DED-42D7-8407-E7FAE42A77F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Time of Experiment (Hr)</t>
   </si>
@@ -99,6 +100,24 @@
   </si>
   <si>
     <t>Buy 190-Proof Food Grade Ethanol in Bulk 5-Gallon Jugs by Culinary Solvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feed Dens </t>
+  </si>
+  <si>
+    <t>prod den</t>
+  </si>
+  <si>
+    <t>waste den</t>
+  </si>
+  <si>
+    <t>flows</t>
+  </si>
+  <si>
+    <t>reflux 4</t>
+  </si>
+  <si>
+    <t>reflux 5</t>
   </si>
 </sst>
 </file>
@@ -483,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D0BD18-ABB7-4116-8051-3C578DA302C8}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,6 +627,10 @@
         <f>C5*F1</f>
         <v>14.005538999999999</v>
       </c>
+      <c r="E6">
+        <f>G4*G5</f>
+        <v>2947.5</v>
+      </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
@@ -725,6 +748,10 @@
       <c r="C16">
         <f>C15*F11</f>
         <v>13.515727799999999</v>
+      </c>
+      <c r="E16">
+        <f>G14*G15</f>
+        <v>2962.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,4 +778,105 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BE464F-9391-4EA2-AE67-15BD6ED8E338}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>_xlfn.STDEV.P(0.9741,0.9747,0.9748)*TINV(0.05,2)/SQRT(3)</f>
+        <v>7.6789818096825258E-4</v>
+      </c>
+      <c r="B2">
+        <f>_xlfn.STDEV.P(0.8292,0.8275,0.8259)*TINV(0.05,2)/SQRT(3)</f>
+        <v>3.3471905697692096E-3</v>
+      </c>
+      <c r="C2">
+        <f>_xlfn.STDEV.P(0.9827,0.9841,0.9844)*TINV(0.05,2)/SQRT(3)</f>
+        <v>1.8404239983838481E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <f>_xlfn.STDEV.P((6),9.5,7.5)*TINV(0.05,2)/SQRT(3)</f>
+        <v>3.5615601007672213</v>
+      </c>
+      <c r="C3">
+        <f>_xlfn.STDEV.P((28+100+7.4),41,30)*TINV(0.05,2)/SQRT(3)</f>
+        <v>117.51695616273844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>_xlfn.STDEV.P(0.977,0.9786,0.9786)*TINV(0.05,2)/SQRT(3)</f>
+        <v>1.8736539961386055E-3</v>
+      </c>
+      <c r="B6">
+        <f>_xlfn.STDEV.P(0.8221,0.8173,0.8207)*TINV(0.05,2)/SQRT(3)</f>
+        <v>5.0067684482505356E-3</v>
+      </c>
+      <c r="C6">
+        <f>_xlfn.STDEV.P(0.9865,0.9874,0.9871)*TINV(0.05,2)/SQRT(3)</f>
+        <v>9.2947922189343015E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <f>_xlfn.STDEV.P((7.1),6.52,5.62)*TINV(0.05,2)/SQRT(3)</f>
+        <v>1.5125839981227542</v>
+      </c>
+      <c r="C7">
+        <f>_xlfn.STDEV.P(57,58,48)*TINV(0.05,2)/SQRT(3)</f>
+        <v>11.170949980050494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>